--- a/study3/presentation_for_paper/study3_result_H_4_2.xlsx
+++ b/study3/presentation_for_paper/study3_result_H_4_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study3/presentation_for_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="184" documentId="8_{9C4C9627-8A22-462E-9634-4234E4EE304D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D8A72B8-C592-4C59-8E68-3E89FD55BAC1}"/>
+  <xr:revisionPtr revIDLastSave="203" documentId="8_{9C4C9627-8A22-462E-9634-4234E4EE304D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{950EB19D-71B6-4C6C-8D70-39D5C15B133B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{BAF9BC1E-A05D-4733-89FE-2E2DB58BE5AF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BAF9BC1E-A05D-4733-89FE-2E2DB58BE5AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="28">
   <si>
     <t>Trait</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -355,11 +355,83 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2FBEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2FBEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2FBEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2FBEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2FBEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2FBEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2FBEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2FBEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -446,6 +518,72 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23283</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3F74C66-C76A-AFF1-0A84-51AD16C75C21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9069916" y="201083"/>
+          <a:ext cx="7893050" cy="3505200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -570,6 +708,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -990,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FDB981-7658-47DA-8A7E-883B2D493E33}">
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1093,19 +1235,11 @@
         <v>0.497</v>
       </c>
       <c r="J4" s="8"/>
-      <c r="K4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" spans="2:15">
       <c r="B5" s="7"/>
@@ -1119,12 +1253,8 @@
         <v>0.27700000000000002</v>
       </c>
       <c r="G5" s="8"/>
-      <c r="H5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8">
         <v>4.8209999999999997</v>
@@ -1133,12 +1263,8 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="M5" s="8"/>
-      <c r="N5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="7"/>
@@ -1166,12 +1292,8 @@
         <v>0.70099999999999996</v>
       </c>
       <c r="M6" s="8"/>
-      <c r="N6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="9"/>
@@ -1202,7 +1324,7 @@
       <c r="N7" s="10">
         <v>7.5549999999999997</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="16">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
@@ -1227,19 +1349,11 @@
         <v>0.497</v>
       </c>
       <c r="J8" s="8"/>
-      <c r="K8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
     </row>
     <row r="9" spans="2:15">
       <c r="B9" s="7"/>
@@ -1253,12 +1367,8 @@
         <v>0.44600000000000001</v>
       </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8">
         <v>0.115</v>
@@ -1267,12 +1377,8 @@
         <v>0.97399999999999998</v>
       </c>
       <c r="M9" s="8"/>
-      <c r="N9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="7"/>
@@ -1300,12 +1406,8 @@
         <v>0.98599999999999999</v>
       </c>
       <c r="M10" s="8"/>
-      <c r="N10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" s="9"/>
@@ -1357,23 +1459,15 @@
       <c r="H12" s="8">
         <v>8.1289999999999996</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="15">
         <v>2.7E-2</v>
       </c>
       <c r="J12" s="8"/>
-      <c r="K12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="7"/>
@@ -1387,26 +1481,18 @@
         <v>0.44800000000000001</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8">
         <v>8.9450000000000003</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="15">
         <v>0.02</v>
       </c>
       <c r="M13" s="8"/>
-      <c r="N13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="7"/>
@@ -1423,23 +1509,19 @@
       <c r="H14" s="8">
         <v>8.1150000000000002</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="15">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8">
         <v>7.2859999999999996</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="15">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="M14" s="8"/>
-      <c r="N14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="9"/>
@@ -1456,14 +1538,14 @@
       <c r="H15" s="10">
         <v>11.134</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="16">
         <v>2.4E-2</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="10">
         <v>8.1219999999999999</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="16">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="M15" s="8"/>
@@ -1495,19 +1577,11 @@
         <v>0.55300000000000005</v>
       </c>
       <c r="J16" s="8"/>
-      <c r="K16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="7"/>
@@ -1521,12 +1595,8 @@
         <v>0.371</v>
       </c>
       <c r="G17" s="8"/>
-      <c r="H17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8">
         <v>-1.196</v>
@@ -1535,12 +1605,8 @@
         <v>0.68100000000000005</v>
       </c>
       <c r="M17" s="8"/>
-      <c r="N17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="7"/>
@@ -1568,12 +1634,8 @@
         <v>0.46899999999999997</v>
       </c>
       <c r="M18" s="8"/>
-      <c r="N18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="9"/>
@@ -1620,52 +1682,8 @@
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="F4:F19">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:O1048576">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
-      <formula>"NaN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I19">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L19">
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4:O19">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1673,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A584C0C5-CE94-4A24-92B8-3B0876F7166F}">
   <dimension ref="B1:E7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1744,7 +1762,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:O17"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/study3/presentation_for_paper/study3_result_H_4_2.xlsx
+++ b/study3/presentation_for_paper/study3_result_H_4_2.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study3/presentation_for_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="203" documentId="8_{9C4C9627-8A22-462E-9634-4234E4EE304D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{950EB19D-71B6-4C6C-8D70-39D5C15B133B}"/>
+  <xr:revisionPtr revIDLastSave="267" documentId="8_{9C4C9627-8A22-462E-9634-4234E4EE304D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7972250E-71FE-46EA-8FC8-527D3D13DEE9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BAF9BC1E-A05D-4733-89FE-2E2DB58BE5AF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{BAF9BC1E-A05D-4733-89FE-2E2DB58BE5AF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="original" sheetId="1" r:id="rId1"/>
+    <sheet name="stmd" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -131,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="30">
   <si>
     <t>Trait</t>
   </si>
@@ -223,12 +224,19 @@
   <si>
     <t>AG_distance_from_max</t>
   </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +265,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -266,7 +280,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -303,13 +317,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -346,6 +448,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -355,150 +463,83 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2FBEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2FBEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2FBEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2FBEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2FBEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2FBEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2FBEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2FBEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2FBEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2FBEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2FBEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2FBEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2FBEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2FBEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2FBEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2FBEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -584,6 +625,72 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>296333</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>14111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>109360</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>23283</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E288232D-B78D-B949-5165-E7AB99A09C56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8043333" y="14111"/>
+          <a:ext cx="7771694" cy="3671005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1132,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FDB981-7658-47DA-8A7E-883B2D493E33}">
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1155,36 +1262,36 @@
   <sheetData>
     <row r="1" spans="2:15" ht="3" customHeight="1"/>
     <row r="2" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="14"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="12"/>
+      <c r="L2" s="14"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="12"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="2:15" s="4" customFormat="1">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
         <v>14</v>
@@ -1324,7 +1431,7 @@
       <c r="N7" s="10">
         <v>7.5549999999999997</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="13">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
@@ -1459,7 +1566,7 @@
       <c r="H12" s="8">
         <v>8.1289999999999996</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="12">
         <v>2.7E-2</v>
       </c>
       <c r="J12" s="8"/>
@@ -1487,7 +1594,7 @@
       <c r="K13" s="8">
         <v>8.9450000000000003</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="12">
         <v>0.02</v>
       </c>
       <c r="M13" s="8"/>
@@ -1509,14 +1616,14 @@
       <c r="H14" s="8">
         <v>8.1150000000000002</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="12">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8">
         <v>7.2859999999999996</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="12">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="M14" s="8"/>
@@ -1538,14 +1645,14 @@
       <c r="H15" s="10">
         <v>11.134</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="13">
         <v>2.4E-2</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="10">
         <v>8.1219999999999999</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="13">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="M15" s="8"/>
@@ -1688,6 +1795,617 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D1F5D8-D0CB-480C-99ED-F12EC4B84484}">
+  <dimension ref="B1:K23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="0.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.75" style="1" customWidth="1"/>
+    <col min="4" max="11" width="11" style="1" customWidth="1"/>
+    <col min="12" max="12" width="0.6640625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="3" customHeight="1"/>
+    <row r="2" spans="2:11" s="4" customFormat="1" ht="28" customHeight="1">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="29"/>
+      <c r="J2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="2:11" s="4" customFormat="1">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="22">
+        <v>1</v>
+      </c>
+      <c r="D4" s="26">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E4" s="31">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="F4" s="23">
+        <v>2.351</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0.497</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19">
+        <v>2</v>
+      </c>
+      <c r="D5" s="27">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E5" s="32">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="27">
+        <v>4.8209999999999997</v>
+      </c>
+      <c r="I5" s="32">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19">
+        <v>3</v>
+      </c>
+      <c r="D6" s="27">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E6" s="32">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="F6" s="20">
+        <v>4.5179999999999998</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="H6" s="27">
+        <v>1.3540000000000001</v>
+      </c>
+      <c r="I6" s="32">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19">
+        <v>4</v>
+      </c>
+      <c r="D7" s="27">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="E7" s="32">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="F7" s="20">
+        <v>-1.145</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="H7" s="27">
+        <v>2.4649999999999999</v>
+      </c>
+      <c r="I7" s="32">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="J7" s="20">
+        <v>7.5549999999999997</v>
+      </c>
+      <c r="K7" s="21">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="6" customHeight="1">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1</v>
+      </c>
+      <c r="D9" s="27">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E9" s="32">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="F9" s="20">
+        <v>2.351</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0.497</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19">
+        <v>2</v>
+      </c>
+      <c r="D10" s="27">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E10" s="32">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="27">
+        <v>0.115</v>
+      </c>
+      <c r="I10" s="32">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19">
+        <v>3</v>
+      </c>
+      <c r="D11" s="27">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E11" s="32">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0.129</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="H11" s="27">
+        <v>-6.3E-2</v>
+      </c>
+      <c r="I11" s="32">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19">
+        <v>4</v>
+      </c>
+      <c r="D12" s="27">
+        <v>0.08</v>
+      </c>
+      <c r="E12" s="32">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="F12" s="20">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="H12" s="27">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="I12" s="32">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="J12" s="20">
+        <v>-1.39</v>
+      </c>
+      <c r="K12" s="20">
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="6" customHeight="1">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1</v>
+      </c>
+      <c r="D14" s="27">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="E14" s="32">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="F14" s="20">
+        <v>8.1289999999999996</v>
+      </c>
+      <c r="G14" s="21">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19">
+        <v>2</v>
+      </c>
+      <c r="D15" s="27">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E15" s="32">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="27">
+        <v>8.9450000000000003</v>
+      </c>
+      <c r="I15" s="34">
+        <v>0.02</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19">
+        <v>3</v>
+      </c>
+      <c r="D16" s="27">
+        <v>0.123</v>
+      </c>
+      <c r="E16" s="32">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="F16" s="20">
+        <v>8.1150000000000002</v>
+      </c>
+      <c r="G16" s="21">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H16" s="27">
+        <v>7.2859999999999996</v>
+      </c>
+      <c r="I16" s="34">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19">
+        <v>4</v>
+      </c>
+      <c r="D17" s="27">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="E17" s="32">
+        <v>0.217</v>
+      </c>
+      <c r="F17" s="20">
+        <v>11.134</v>
+      </c>
+      <c r="G17" s="21">
+        <v>2.4E-2</v>
+      </c>
+      <c r="H17" s="27">
+        <v>8.1219999999999999</v>
+      </c>
+      <c r="I17" s="34">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J17" s="20">
+        <v>-4.0949999999999998</v>
+      </c>
+      <c r="K17" s="20">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="6" customHeight="1">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="27">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E19" s="32">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="F19" s="20">
+        <v>1.6879999999999999</v>
+      </c>
+      <c r="G19" s="20">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19">
+        <v>2</v>
+      </c>
+      <c r="D20" s="27">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E20" s="32">
+        <v>0.371</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="27">
+        <v>-1.196</v>
+      </c>
+      <c r="I20" s="32">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="J20" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19">
+        <v>3</v>
+      </c>
+      <c r="D21" s="27">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="E21" s="32">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F21" s="20">
+        <v>-1.772</v>
+      </c>
+      <c r="G21" s="20">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="H21" s="27">
+        <v>2.1419999999999999</v>
+      </c>
+      <c r="I21" s="32">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="J21" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9">
+        <v>4</v>
+      </c>
+      <c r="D22" s="28">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="E22" s="33">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="F22" s="10">
+        <v>-2.3279999999999998</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="H22" s="28">
+        <v>1.95</v>
+      </c>
+      <c r="I22" s="33">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="J22" s="10">
+        <v>1</v>
+      </c>
+      <c r="K22" s="10">
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="3.5" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A584C0C5-CE94-4A24-92B8-3B0876F7166F}">
   <dimension ref="B1:E7"/>
   <sheetViews>
@@ -1741,7 +2459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3459386-2859-4CE9-8058-A17A32B44A47}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1757,7 +2475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA6AAB5-59F8-40AC-A075-8286553707C4}">
   <dimension ref="A1:O31"/>
   <sheetViews>
